--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Hp</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>25.62318933333333</v>
+        <v>0.1498226666666667</v>
       </c>
       <c r="H2">
-        <v>76.869568</v>
+        <v>0.449468</v>
       </c>
       <c r="I2">
-        <v>0.9612793813842918</v>
+        <v>0.1392821207592237</v>
       </c>
       <c r="J2">
-        <v>0.9612793813842919</v>
+        <v>0.1392821207592237</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q2">
-        <v>1950.728977474524</v>
+        <v>0.008418635521777778</v>
       </c>
       <c r="R2">
-        <v>17556.56079727072</v>
+        <v>0.07576771969599999</v>
       </c>
       <c r="S2">
-        <v>0.959845535561156</v>
+        <v>0.05475719920385243</v>
       </c>
       <c r="T2">
-        <v>0.9598455355611561</v>
+        <v>0.05475719920385242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>25.62318933333333</v>
+        <v>0.1498226666666667</v>
       </c>
       <c r="H3">
-        <v>76.869568</v>
+        <v>0.449468</v>
       </c>
       <c r="I3">
-        <v>0.9612793813842918</v>
+        <v>0.1392821207592237</v>
       </c>
       <c r="J3">
-        <v>0.9612793813842919</v>
+        <v>0.1392821207592237</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,84 +617,84 @@
         <v>0.260213</v>
       </c>
       <c r="O3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q3">
-        <v>2.222495655331556</v>
+        <v>0.01299526852044445</v>
       </c>
       <c r="R3">
-        <v>20.002460897984</v>
+        <v>0.116957416684</v>
       </c>
       <c r="S3">
-        <v>0.001093566844603824</v>
+        <v>0.08452492155537131</v>
       </c>
       <c r="T3">
-        <v>0.001093566844603824</v>
+        <v>0.08452492155537131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>25.62318933333333</v>
+        <v>0.925855</v>
       </c>
       <c r="H4">
-        <v>76.869568</v>
+        <v>2.777565</v>
       </c>
       <c r="I4">
-        <v>0.9612793813842918</v>
+        <v>0.8607178792407764</v>
       </c>
       <c r="J4">
-        <v>0.9612793813842919</v>
+        <v>0.8607178792407763</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02698966666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N4">
-        <v>0.080969</v>
+        <v>0.168572</v>
       </c>
       <c r="O4">
-        <v>0.0003539855167203345</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P4">
-        <v>0.0003539855167203345</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q4">
-        <v>0.6915613390435555</v>
+        <v>0.05202440968666667</v>
       </c>
       <c r="R4">
-        <v>6.224052051392</v>
+        <v>0.46821968718</v>
       </c>
       <c r="S4">
-        <v>0.000340278978531922</v>
+        <v>0.3383815533178077</v>
       </c>
       <c r="T4">
-        <v>0.000340278978531922</v>
+        <v>0.3383815533178076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,356 +717,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9258549999999999</v>
+        <v>0.925855</v>
       </c>
       <c r="H5">
         <v>2.777565</v>
       </c>
       <c r="I5">
-        <v>0.03473436932746467</v>
+        <v>0.8607178792407764</v>
       </c>
       <c r="J5">
-        <v>0.03473436932746467</v>
+        <v>0.8607178792407763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>76.13138833333333</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N5">
-        <v>228.394165</v>
+        <v>0.260213</v>
       </c>
       <c r="O5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q5">
-        <v>70.48662654535832</v>
+        <v>0.08030650237166667</v>
       </c>
       <c r="R5">
-        <v>634.3796389082248</v>
+        <v>0.7227585213450001</v>
       </c>
       <c r="S5">
-        <v>0.03468255948805283</v>
+        <v>0.5223363259229687</v>
       </c>
       <c r="T5">
-        <v>0.03468255948805283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.9258549999999999</v>
-      </c>
-      <c r="H6">
-        <v>2.777565</v>
-      </c>
-      <c r="I6">
-        <v>0.03473436932746467</v>
-      </c>
-      <c r="J6">
-        <v>0.03473436932746467</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.08673766666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.260213</v>
-      </c>
-      <c r="O6">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="P6">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="Q6">
-        <v>0.08030650237166666</v>
-      </c>
-      <c r="R6">
-        <v>0.722758521345</v>
-      </c>
-      <c r="S6">
-        <v>3.951437573750928E-05</v>
-      </c>
-      <c r="T6">
-        <v>3.951437573750928E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9258549999999999</v>
-      </c>
-      <c r="H7">
-        <v>2.777565</v>
-      </c>
-      <c r="I7">
-        <v>0.03473436932746467</v>
-      </c>
-      <c r="J7">
-        <v>0.03473436932746467</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.080969</v>
-      </c>
-      <c r="O7">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P7">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q7">
-        <v>0.02498851783166666</v>
-      </c>
-      <c r="R7">
-        <v>0.224896660485</v>
-      </c>
-      <c r="S7">
-        <v>1.229546367433752E-05</v>
-      </c>
-      <c r="T7">
-        <v>1.229546367433752E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1062546666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.318764</v>
-      </c>
-      <c r="I8">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="J8">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>76.13138833333333</v>
-      </c>
-      <c r="N8">
-        <v>228.394165</v>
-      </c>
-      <c r="O8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="P8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="Q8">
-        <v>8.089315290228889</v>
-      </c>
-      <c r="R8">
-        <v>72.80383761205999</v>
-      </c>
-      <c r="S8">
-        <v>0.003980303392593755</v>
-      </c>
-      <c r="T8">
-        <v>0.003980303392593755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1062546666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.318764</v>
-      </c>
-      <c r="I9">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="J9">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.08673766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.260213</v>
-      </c>
-      <c r="O9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="P9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="Q9">
-        <v>0.009216281859111112</v>
-      </c>
-      <c r="R9">
-        <v>0.082946536732</v>
-      </c>
-      <c r="S9">
-        <v>4.534821135631897E-06</v>
-      </c>
-      <c r="T9">
-        <v>4.534821135631897E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1062546666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.318764</v>
-      </c>
-      <c r="I10">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="J10">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.080969</v>
-      </c>
-      <c r="O10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q10">
-        <v>0.002867778035111111</v>
-      </c>
-      <c r="R10">
-        <v>0.025810002316</v>
-      </c>
-      <c r="S10">
-        <v>1.411074514074927E-06</v>
-      </c>
-      <c r="T10">
-        <v>1.411074514074927E-06</v>
+        <v>0.5223363259229687</v>
       </c>
     </row>
   </sheetData>
